--- a/biology/Zoologie/Gomophia/Gomophia.xlsx
+++ b/biology/Zoologie/Gomophia/Gomophia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomophia est un genre d'étoiles de mer de la famille des Ophidiasteridae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'instar des autres genres de cette famille, les Gomophia ont un disque central relativement réduit et généralement cinq bras (rarement quatre ou six) tubulaires souples et allongés. Ce genre se caractérise par ses plaques transformées en tubercules plus ou moins coniques, et des plaques supéromarginales alternativement grosses et petites. 
-Ce genre est encore mal défini, et la différence avec le proche genre Nardoa est probablement artificielle, et nécessiterait une révision (la distinction est fondée sur le fait que les Nardoa peuvent avoir des papules respiratoires jusqu'en-dessous de la ceinture marginale, sans que ce soit systématique[2], ou sur l'alternance entre grosses et petites plaques supéromarginales). En conséquence, la bibliographie est très contradictoire et le statut de plusieurs espèces est particulièrement douteux, et seule l'espèce Gomophia egyptiaca est relativement bien identifiée (quoique très variable morphologiquement), plusieurs autres en étant peut-être des synonymes[3].
+Ce genre est encore mal défini, et la différence avec le proche genre Nardoa est probablement artificielle, et nécessiterait une révision (la distinction est fondée sur le fait que les Nardoa peuvent avoir des papules respiratoires jusqu'en-dessous de la ceinture marginale, sans que ce soit systématique, ou sur l'alternance entre grosses et petites plaques supéromarginales). En conséquence, la bibliographie est très contradictoire et le statut de plusieurs espèces est particulièrement douteux, et seule l'espèce Gomophia egyptiaca est relativement bien identifiée (quoique très variable morphologiquement), plusieurs autres en étant peut-être des synonymes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gomophia egyptiaca.
